--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.15201556558065</v>
+        <v>1.034069333333333</v>
       </c>
       <c r="H2">
-        <v>5.15201556558065</v>
+        <v>3.102208</v>
       </c>
       <c r="I2">
-        <v>0.6903665771402785</v>
+        <v>0.1105855382564839</v>
       </c>
       <c r="J2">
-        <v>0.6903665771402785</v>
+        <v>0.1105855382564838</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.46872113201998</v>
+        <v>74.89537566666667</v>
       </c>
       <c r="N2">
-        <v>7.46872113201998</v>
+        <v>224.686127</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6660623326691122</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6660623326691123</v>
       </c>
       <c r="Q2">
-        <v>38.47896752714807</v>
+        <v>77.44701118537955</v>
       </c>
       <c r="R2">
-        <v>38.47896752714807</v>
+        <v>697.023100668416</v>
       </c>
       <c r="S2">
-        <v>0.6903665771402785</v>
+        <v>0.07365686157058299</v>
       </c>
       <c r="T2">
-        <v>0.6903665771402785</v>
+        <v>0.07365686157058297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>1.034069333333333</v>
+      </c>
+      <c r="H3">
+        <v>3.102208</v>
+      </c>
+      <c r="I3">
+        <v>0.1105855382564839</v>
+      </c>
+      <c r="J3">
+        <v>0.1105855382564838</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N3">
+        <v>112.648858</v>
+      </c>
+      <c r="O3">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P3">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q3">
+        <v>38.82890983094044</v>
+      </c>
+      <c r="R3">
+        <v>349.4601884784639</v>
+      </c>
+      <c r="S3">
+        <v>0.03692867668590086</v>
+      </c>
+      <c r="T3">
+        <v>0.03692867668590086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.393083666666667</v>
+      </c>
+      <c r="H4">
+        <v>16.179251</v>
+      </c>
+      <c r="I4">
+        <v>0.5767476521309193</v>
+      </c>
+      <c r="J4">
+        <v>0.5767476521309193</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N4">
+        <v>224.686127</v>
+      </c>
+      <c r="O4">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P4">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q4">
+        <v>403.9170272167641</v>
+      </c>
+      <c r="R4">
+        <v>3635.253244950877</v>
+      </c>
+      <c r="S4">
+        <v>0.3841498865397537</v>
+      </c>
+      <c r="T4">
+        <v>0.3841498865397538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.393083666666667</v>
+      </c>
+      <c r="H5">
+        <v>16.179251</v>
+      </c>
+      <c r="I5">
+        <v>0.5767476521309193</v>
+      </c>
+      <c r="J5">
+        <v>0.5767476521309193</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N5">
+        <v>112.648858</v>
+      </c>
+      <c r="O5">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P5">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q5">
+        <v>202.5082387161509</v>
+      </c>
+      <c r="R5">
+        <v>1822.574148445358</v>
+      </c>
+      <c r="S5">
+        <v>0.1925977655911655</v>
+      </c>
+      <c r="T5">
+        <v>0.1925977655911655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.013304</v>
+      </c>
+      <c r="H6">
+        <v>0.039912</v>
+      </c>
+      <c r="I6">
+        <v>0.001422757598101992</v>
+      </c>
+      <c r="J6">
+        <v>0.001422757598101992</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N6">
+        <v>224.686127</v>
+      </c>
+      <c r="O6">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P6">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q6">
+        <v>0.9964080778693335</v>
+      </c>
+      <c r="R6">
+        <v>8.967672700824</v>
+      </c>
+      <c r="S6">
+        <v>0.000947645244614516</v>
+      </c>
+      <c r="T6">
+        <v>0.000947645244614516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.013304</v>
+      </c>
+      <c r="H7">
+        <v>0.039912</v>
+      </c>
+      <c r="I7">
+        <v>0.001422757598101992</v>
+      </c>
+      <c r="J7">
+        <v>0.001422757598101992</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N7">
+        <v>112.648858</v>
+      </c>
+      <c r="O7">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P7">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q7">
+        <v>0.4995601356106667</v>
+      </c>
+      <c r="R7">
+        <v>4.496041220496</v>
+      </c>
+      <c r="S7">
+        <v>0.0004751123534874758</v>
+      </c>
+      <c r="T7">
+        <v>0.0004751123534874758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.31070892916816</v>
-      </c>
-      <c r="H3">
-        <v>2.31070892916816</v>
-      </c>
-      <c r="I3">
-        <v>0.3096334228597215</v>
-      </c>
-      <c r="J3">
-        <v>0.3096334228597215</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>7.46872113201998</v>
-      </c>
-      <c r="N3">
-        <v>7.46872113201998</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>17.2580406092255</v>
-      </c>
-      <c r="R3">
-        <v>17.2580406092255</v>
-      </c>
-      <c r="S3">
-        <v>0.3096334228597215</v>
-      </c>
-      <c r="T3">
-        <v>0.3096334228597215</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.910398</v>
+      </c>
+      <c r="H8">
+        <v>8.731194</v>
+      </c>
+      <c r="I8">
+        <v>0.311244052014495</v>
+      </c>
+      <c r="J8">
+        <v>0.311244052014495</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N8">
+        <v>224.686127</v>
+      </c>
+      <c r="O8">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P8">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q8">
+        <v>217.9753515495154</v>
+      </c>
+      <c r="R8">
+        <v>1961.778163945638</v>
+      </c>
+      <c r="S8">
+        <v>0.207307939314161</v>
+      </c>
+      <c r="T8">
+        <v>0.207307939314161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.910398</v>
+      </c>
+      <c r="H9">
+        <v>8.731194</v>
+      </c>
+      <c r="I9">
+        <v>0.311244052014495</v>
+      </c>
+      <c r="J9">
+        <v>0.311244052014495</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N9">
+        <v>112.648858</v>
+      </c>
+      <c r="O9">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P9">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q9">
+        <v>109.2843370084947</v>
+      </c>
+      <c r="R9">
+        <v>983.5590330764519</v>
+      </c>
+      <c r="S9">
+        <v>0.1039361127003339</v>
+      </c>
+      <c r="T9">
+        <v>0.1039361127003339</v>
       </c>
     </row>
   </sheetData>
